--- a/dataanalysis/data/predictions/1600/08011526_1530.xlsx
+++ b/dataanalysis/data/predictions/1600/08011526_1530.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="142">
   <si>
     <t>序号</t>
   </si>
@@ -118,6 +118,9 @@
     <t>重合</t>
   </si>
   <si>
+    <t>预测成功</t>
+  </si>
+  <si>
     <t>2025-08-01</t>
   </si>
   <si>
@@ -437,12 +440,6 @@
   </si>
   <si>
     <t>是</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>1</t>
   </si>
 </sst>
 </file>
@@ -800,13 +797,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AH65"/>
+  <dimension ref="A1:AI65"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:34">
+    <row r="1" spans="1:35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -909,19 +906,22 @@
       <c r="AH1" s="1" t="s">
         <v>33</v>
       </c>
+      <c r="AI1" s="1" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="2" spans="1:34">
+    <row r="2" spans="1:35">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C2">
         <v>300006</v>
       </c>
       <c r="D2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E2">
         <v>-5.81</v>
@@ -939,7 +939,7 @@
         <v>68500.89</v>
       </c>
       <c r="J2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K2">
         <v>14</v>
@@ -980,8 +980,23 @@
       <c r="W2">
         <v>-0.6899999999999999</v>
       </c>
+      <c r="X2">
+        <v>4.67</v>
+      </c>
+      <c r="Y2">
+        <v>5.61</v>
+      </c>
+      <c r="Z2">
+        <v>4.86</v>
+      </c>
       <c r="AC2" t="s">
-        <v>139</v>
+        <v>140</v>
+      </c>
+      <c r="AD2">
+        <v>0</v>
+      </c>
+      <c r="AE2">
+        <v>0</v>
       </c>
       <c r="AF2">
         <v>0</v>
@@ -989,22 +1004,25 @@
       <c r="AG2">
         <v>2.208551406860352</v>
       </c>
-      <c r="AH2" t="s">
-        <v>141</v>
+      <c r="AH2">
+        <v>0</v>
+      </c>
+      <c r="AI2">
+        <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:34">
+    <row r="3" spans="1:35">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C3">
         <v>300009</v>
       </c>
       <c r="D3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E3">
         <v>-1.73</v>
@@ -1022,7 +1040,7 @@
         <v>326711.68</v>
       </c>
       <c r="J3" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -1063,8 +1081,23 @@
       <c r="W3">
         <v>-1.22</v>
       </c>
+      <c r="X3">
+        <v>-1.01</v>
+      </c>
+      <c r="Y3">
+        <v>12.07</v>
+      </c>
+      <c r="Z3">
+        <v>1.43</v>
+      </c>
       <c r="AC3" t="s">
-        <v>139</v>
+        <v>140</v>
+      </c>
+      <c r="AD3">
+        <v>0</v>
+      </c>
+      <c r="AE3">
+        <v>0</v>
       </c>
       <c r="AF3">
         <v>0</v>
@@ -1072,22 +1105,25 @@
       <c r="AG3">
         <v>3.526090145111084</v>
       </c>
-      <c r="AH3" t="s">
-        <v>141</v>
+      <c r="AH3">
+        <v>0</v>
+      </c>
+      <c r="AI3">
+        <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:34">
+    <row r="4" spans="1:35">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C4">
         <v>300149</v>
       </c>
       <c r="D4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E4">
         <v>-6.6</v>
@@ -1105,7 +1141,7 @@
         <v>134680.55</v>
       </c>
       <c r="J4" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -1146,8 +1182,23 @@
       <c r="W4">
         <v>-1.11</v>
       </c>
+      <c r="X4">
+        <v>-0.83</v>
+      </c>
+      <c r="Y4">
+        <v>13.4</v>
+      </c>
+      <c r="Z4">
+        <v>0.75</v>
+      </c>
       <c r="AC4" t="s">
-        <v>139</v>
+        <v>140</v>
+      </c>
+      <c r="AD4">
+        <v>0</v>
+      </c>
+      <c r="AE4">
+        <v>0</v>
       </c>
       <c r="AF4">
         <v>1</v>
@@ -1155,22 +1206,25 @@
       <c r="AG4">
         <v>2.721950769424438</v>
       </c>
-      <c r="AH4" t="s">
-        <v>141</v>
+      <c r="AH4">
+        <v>0</v>
+      </c>
+      <c r="AI4">
+        <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:34">
+    <row r="5" spans="1:35">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C5">
         <v>300158</v>
       </c>
       <c r="D5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E5">
         <v>-5.45</v>
@@ -1188,7 +1242,7 @@
         <v>151484.66</v>
       </c>
       <c r="J5" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K5">
         <v>8</v>
@@ -1229,8 +1283,23 @@
       <c r="W5">
         <v>0.22</v>
       </c>
+      <c r="X5">
+        <v>0.61</v>
+      </c>
+      <c r="Y5">
+        <v>8.44</v>
+      </c>
+      <c r="Z5">
+        <v>3.56</v>
+      </c>
       <c r="AC5" t="s">
-        <v>139</v>
+        <v>140</v>
+      </c>
+      <c r="AD5">
+        <v>0</v>
+      </c>
+      <c r="AE5">
+        <v>0</v>
       </c>
       <c r="AF5">
         <v>0</v>
@@ -1238,22 +1307,25 @@
       <c r="AG5">
         <v>8.176138877868652</v>
       </c>
-      <c r="AH5" t="s">
-        <v>141</v>
+      <c r="AH5">
+        <v>0</v>
+      </c>
+      <c r="AI5">
+        <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:34">
+    <row r="6" spans="1:35">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C6">
         <v>300188</v>
       </c>
       <c r="D6" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E6">
         <v>5.94</v>
@@ -1271,7 +1343,7 @@
         <v>142848.14</v>
       </c>
       <c r="J6" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="K6">
         <v>4</v>
@@ -1312,8 +1384,23 @@
       <c r="W6">
         <v>0.86</v>
       </c>
+      <c r="X6">
+        <v>-2.8</v>
+      </c>
+      <c r="Y6">
+        <v>18.61</v>
+      </c>
+      <c r="Z6">
+        <v>4.32</v>
+      </c>
       <c r="AC6" t="s">
-        <v>139</v>
+        <v>140</v>
+      </c>
+      <c r="AD6">
+        <v>0</v>
+      </c>
+      <c r="AE6">
+        <v>0</v>
       </c>
       <c r="AF6">
         <v>0</v>
@@ -1321,22 +1408,25 @@
       <c r="AG6">
         <v>0.2307864129543304</v>
       </c>
-      <c r="AH6" t="s">
-        <v>141</v>
+      <c r="AH6">
+        <v>0</v>
+      </c>
+      <c r="AI6">
+        <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:34">
+    <row r="7" spans="1:35">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C7">
         <v>300238</v>
       </c>
       <c r="D7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E7">
         <v>9.199999999999999</v>
@@ -1354,7 +1444,7 @@
         <v>87843.32000000001</v>
       </c>
       <c r="J7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="K7">
         <v>1</v>
@@ -1395,8 +1485,23 @@
       <c r="W7">
         <v>0.87</v>
       </c>
+      <c r="X7">
+        <v>-1.89</v>
+      </c>
+      <c r="Y7">
+        <v>18.85</v>
+      </c>
+      <c r="Z7">
+        <v>-0.79</v>
+      </c>
       <c r="AC7" t="s">
-        <v>140</v>
+        <v>141</v>
+      </c>
+      <c r="AD7">
+        <v>0</v>
+      </c>
+      <c r="AE7">
+        <v>0</v>
       </c>
       <c r="AF7">
         <v>1</v>
@@ -1404,22 +1509,25 @@
       <c r="AG7">
         <v>3.439528226852417</v>
       </c>
-      <c r="AH7" t="s">
-        <v>142</v>
+      <c r="AH7">
+        <v>1</v>
+      </c>
+      <c r="AI7">
+        <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:34">
+    <row r="8" spans="1:35">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C8">
         <v>300254</v>
       </c>
       <c r="D8" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E8">
         <v>-3.38</v>
@@ -1437,7 +1545,7 @@
         <v>93887.88</v>
       </c>
       <c r="J8" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K8">
         <v>8</v>
@@ -1478,8 +1586,23 @@
       <c r="W8">
         <v>-0.46</v>
       </c>
+      <c r="X8">
+        <v>-2.89</v>
+      </c>
+      <c r="Y8">
+        <v>13.13</v>
+      </c>
+      <c r="Z8">
+        <v>-0.08</v>
+      </c>
       <c r="AC8" t="s">
-        <v>139</v>
+        <v>140</v>
+      </c>
+      <c r="AD8">
+        <v>0</v>
+      </c>
+      <c r="AE8">
+        <v>0</v>
       </c>
       <c r="AF8">
         <v>0</v>
@@ -1487,22 +1610,25 @@
       <c r="AG8">
         <v>1.148610711097717</v>
       </c>
-      <c r="AH8" t="s">
-        <v>141</v>
+      <c r="AH8">
+        <v>0</v>
+      </c>
+      <c r="AI8">
+        <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:34">
+    <row r="9" spans="1:35">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C9">
         <v>300261</v>
       </c>
       <c r="D9" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E9">
         <v>-1.82</v>
@@ -1520,7 +1646,7 @@
         <v>89922.89</v>
       </c>
       <c r="J9" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="K9">
         <v>2</v>
@@ -1561,8 +1687,23 @@
       <c r="W9">
         <v>-0.33</v>
       </c>
+      <c r="X9">
+        <v>-2.66</v>
+      </c>
+      <c r="Y9">
+        <v>8.75</v>
+      </c>
+      <c r="Z9">
+        <v>1.16</v>
+      </c>
       <c r="AC9" t="s">
-        <v>139</v>
+        <v>140</v>
+      </c>
+      <c r="AD9">
+        <v>0</v>
+      </c>
+      <c r="AE9">
+        <v>0</v>
       </c>
       <c r="AF9">
         <v>0</v>
@@ -1570,22 +1711,25 @@
       <c r="AG9">
         <v>4.71259593963623</v>
       </c>
-      <c r="AH9" t="s">
-        <v>141</v>
+      <c r="AH9">
+        <v>0</v>
+      </c>
+      <c r="AI9">
+        <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:34">
+    <row r="10" spans="1:35">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C10">
         <v>300322</v>
       </c>
       <c r="D10" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E10">
         <v>-3.76</v>
@@ -1603,7 +1747,7 @@
         <v>231987.87</v>
       </c>
       <c r="J10" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="K10">
         <v>5</v>
@@ -1644,8 +1788,23 @@
       <c r="W10">
         <v>-1.79</v>
       </c>
+      <c r="X10">
+        <v>1.09</v>
+      </c>
+      <c r="Y10">
+        <v>19.87</v>
+      </c>
+      <c r="Z10">
+        <v>3.6</v>
+      </c>
       <c r="AC10" t="s">
-        <v>139</v>
+        <v>140</v>
+      </c>
+      <c r="AD10">
+        <v>0</v>
+      </c>
+      <c r="AE10">
+        <v>0</v>
       </c>
       <c r="AF10">
         <v>0</v>
@@ -1653,22 +1812,25 @@
       <c r="AG10">
         <v>0.7704159021377563</v>
       </c>
-      <c r="AH10" t="s">
-        <v>141</v>
+      <c r="AH10">
+        <v>0</v>
+      </c>
+      <c r="AI10">
+        <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:34">
+    <row r="11" spans="1:35">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C11">
         <v>300378</v>
       </c>
       <c r="D11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E11">
         <v>16.06</v>
@@ -1686,7 +1848,7 @@
         <v>325416.52</v>
       </c>
       <c r="J11" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="K11">
         <v>6</v>
@@ -1727,8 +1889,23 @@
       <c r="W11">
         <v>0.85</v>
       </c>
+      <c r="X11">
+        <v>6.61</v>
+      </c>
+      <c r="Y11">
+        <v>66.56</v>
+      </c>
+      <c r="Z11">
+        <v>9.130000000000001</v>
+      </c>
       <c r="AC11" t="s">
-        <v>139</v>
+        <v>140</v>
+      </c>
+      <c r="AD11">
+        <v>0</v>
+      </c>
+      <c r="AE11">
+        <v>1</v>
       </c>
       <c r="AF11">
         <v>0</v>
@@ -1736,22 +1913,25 @@
       <c r="AG11">
         <v>5.521035194396973</v>
       </c>
-      <c r="AH11" t="s">
-        <v>141</v>
+      <c r="AH11">
+        <v>0</v>
+      </c>
+      <c r="AI11">
+        <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:34">
+    <row r="12" spans="1:35">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C12">
         <v>300394</v>
       </c>
       <c r="D12" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E12">
         <v>2.13</v>
@@ -1769,7 +1949,7 @@
         <v>544588.4399999999</v>
       </c>
       <c r="J12" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="K12">
         <v>4</v>
@@ -1810,8 +1990,23 @@
       <c r="W12">
         <v>0.1</v>
       </c>
+      <c r="X12">
+        <v>-3.17</v>
+      </c>
+      <c r="Y12">
+        <v>107.88</v>
+      </c>
+      <c r="Z12">
+        <v>0</v>
+      </c>
       <c r="AC12" t="s">
-        <v>139</v>
+        <v>140</v>
+      </c>
+      <c r="AD12">
+        <v>0</v>
+      </c>
+      <c r="AE12">
+        <v>0</v>
       </c>
       <c r="AF12">
         <v>1</v>
@@ -1819,22 +2014,25 @@
       <c r="AG12">
         <v>2.636417388916016</v>
       </c>
-      <c r="AH12" t="s">
-        <v>141</v>
+      <c r="AH12">
+        <v>0</v>
+      </c>
+      <c r="AI12">
+        <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:34">
+    <row r="13" spans="1:35">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C13">
         <v>300410</v>
       </c>
       <c r="D13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E13">
         <v>4.12</v>
@@ -1852,7 +2050,7 @@
         <v>72252.00999999999</v>
       </c>
       <c r="J13" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="K13">
         <v>4</v>
@@ -1893,8 +2091,23 @@
       <c r="W13">
         <v>1.04</v>
       </c>
+      <c r="X13">
+        <v>-4.41</v>
+      </c>
+      <c r="Y13">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="Z13">
+        <v>-0.5600000000000001</v>
+      </c>
       <c r="AC13" t="s">
-        <v>139</v>
+        <v>140</v>
+      </c>
+      <c r="AD13">
+        <v>0</v>
+      </c>
+      <c r="AE13">
+        <v>0</v>
       </c>
       <c r="AF13">
         <v>0</v>
@@ -1902,22 +2115,25 @@
       <c r="AG13">
         <v>0.5827990174293518</v>
       </c>
-      <c r="AH13" t="s">
-        <v>141</v>
+      <c r="AH13">
+        <v>0</v>
+      </c>
+      <c r="AI13">
+        <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:34">
+    <row r="14" spans="1:35">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C14">
         <v>300414</v>
       </c>
       <c r="D14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E14">
         <v>3.95</v>
@@ -1935,7 +2151,7 @@
         <v>92012.49000000001</v>
       </c>
       <c r="J14" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="K14">
         <v>15</v>
@@ -1976,8 +2192,23 @@
       <c r="W14">
         <v>0.13</v>
       </c>
+      <c r="X14">
+        <v>-2.25</v>
+      </c>
+      <c r="Y14">
+        <v>15.68</v>
+      </c>
+      <c r="Z14">
+        <v>0.9</v>
+      </c>
       <c r="AC14" t="s">
-        <v>139</v>
+        <v>140</v>
+      </c>
+      <c r="AD14">
+        <v>0</v>
+      </c>
+      <c r="AE14">
+        <v>0</v>
       </c>
       <c r="AF14">
         <v>0</v>
@@ -1985,22 +2216,25 @@
       <c r="AG14">
         <v>5.000801086425781</v>
       </c>
-      <c r="AH14" t="s">
-        <v>141</v>
+      <c r="AH14">
+        <v>0</v>
+      </c>
+      <c r="AI14">
+        <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:34">
+    <row r="15" spans="1:35">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C15">
         <v>300436</v>
       </c>
       <c r="D15" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E15">
         <v>-10.66</v>
@@ -2018,7 +2252,7 @@
         <v>211289.22</v>
       </c>
       <c r="J15" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K15">
         <v>22</v>
@@ -2059,8 +2293,23 @@
       <c r="W15">
         <v>-0.91</v>
       </c>
+      <c r="X15">
+        <v>18.18</v>
+      </c>
+      <c r="Y15">
+        <v>122.06</v>
+      </c>
+      <c r="Z15">
+        <v>19.32</v>
+      </c>
       <c r="AC15" t="s">
-        <v>139</v>
+        <v>140</v>
+      </c>
+      <c r="AD15">
+        <v>0</v>
+      </c>
+      <c r="AE15">
+        <v>1</v>
       </c>
       <c r="AF15">
         <v>0</v>
@@ -2068,22 +2317,25 @@
       <c r="AG15">
         <v>2.35106635093689</v>
       </c>
-      <c r="AH15" t="s">
-        <v>141</v>
+      <c r="AH15">
+        <v>0</v>
+      </c>
+      <c r="AI15">
+        <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:34">
+    <row r="16" spans="1:35">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C16">
         <v>300486</v>
       </c>
       <c r="D16" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E16">
         <v>20</v>
@@ -2101,7 +2353,7 @@
         <v>99969.42</v>
       </c>
       <c r="J16" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="K16">
         <v>1</v>
@@ -2142,8 +2394,23 @@
       <c r="W16">
         <v>1.76</v>
       </c>
+      <c r="X16">
+        <v>19.99</v>
+      </c>
+      <c r="Y16">
+        <v>16.99</v>
+      </c>
+      <c r="Z16">
+        <v>19.99</v>
+      </c>
       <c r="AC16" t="s">
-        <v>140</v>
+        <v>141</v>
+      </c>
+      <c r="AD16">
+        <v>1</v>
+      </c>
+      <c r="AE16">
+        <v>1</v>
       </c>
       <c r="AF16">
         <v>1</v>
@@ -2151,22 +2418,25 @@
       <c r="AG16">
         <v>19.05084991455078</v>
       </c>
-      <c r="AH16" t="s">
-        <v>142</v>
+      <c r="AH16">
+        <v>1</v>
+      </c>
+      <c r="AI16">
+        <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:34">
+    <row r="17" spans="1:35">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C17">
         <v>300505</v>
       </c>
       <c r="D17" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E17">
         <v>3.9</v>
@@ -2184,7 +2454,7 @@
         <v>97166.53999999999</v>
       </c>
       <c r="J17" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -2225,8 +2495,23 @@
       <c r="W17">
         <v>0.88</v>
       </c>
+      <c r="X17">
+        <v>1.3</v>
+      </c>
+      <c r="Y17">
+        <v>22.06</v>
+      </c>
+      <c r="Z17">
+        <v>2.13</v>
+      </c>
       <c r="AC17" t="s">
-        <v>140</v>
+        <v>141</v>
+      </c>
+      <c r="AD17">
+        <v>0</v>
+      </c>
+      <c r="AE17">
+        <v>0</v>
       </c>
       <c r="AF17">
         <v>0</v>
@@ -2234,22 +2519,25 @@
       <c r="AG17">
         <v>1.671267509460449</v>
       </c>
-      <c r="AH17" t="s">
-        <v>141</v>
+      <c r="AH17">
+        <v>0</v>
+      </c>
+      <c r="AI17">
+        <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:34">
+    <row r="18" spans="1:35">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C18">
         <v>300528</v>
       </c>
       <c r="D18" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E18">
         <v>-8.050000000000001</v>
@@ -2267,7 +2555,7 @@
         <v>166468.77</v>
       </c>
       <c r="J18" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="K18">
         <v>8</v>
@@ -2308,8 +2596,23 @@
       <c r="W18">
         <v>-1.77</v>
       </c>
+      <c r="X18">
+        <v>-11.33</v>
+      </c>
+      <c r="Y18">
+        <v>20.89</v>
+      </c>
+      <c r="Z18">
+        <v>-2.15</v>
+      </c>
       <c r="AC18" t="s">
-        <v>139</v>
+        <v>140</v>
+      </c>
+      <c r="AD18">
+        <v>0</v>
+      </c>
+      <c r="AE18">
+        <v>0</v>
       </c>
       <c r="AF18">
         <v>0</v>
@@ -2317,22 +2620,25 @@
       <c r="AG18">
         <v>3.176194906234741</v>
       </c>
-      <c r="AH18" t="s">
-        <v>141</v>
+      <c r="AH18">
+        <v>0</v>
+      </c>
+      <c r="AI18">
+        <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:34">
+    <row r="19" spans="1:35">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C19">
         <v>300588</v>
       </c>
       <c r="D19" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E19">
         <v>-0.87</v>
@@ -2350,7 +2656,7 @@
         <v>51383.33</v>
       </c>
       <c r="J19" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="K19">
         <v>4</v>
@@ -2391,8 +2697,23 @@
       <c r="W19">
         <v>0.06</v>
       </c>
+      <c r="X19">
+        <v>-1.34</v>
+      </c>
+      <c r="Y19">
+        <v>19.7</v>
+      </c>
+      <c r="Z19">
+        <v>1.65</v>
+      </c>
       <c r="AC19" t="s">
-        <v>139</v>
+        <v>140</v>
+      </c>
+      <c r="AD19">
+        <v>0</v>
+      </c>
+      <c r="AE19">
+        <v>0</v>
       </c>
       <c r="AF19">
         <v>0</v>
@@ -2400,22 +2721,25 @@
       <c r="AG19">
         <v>0.8896694779396057</v>
       </c>
-      <c r="AH19" t="s">
-        <v>141</v>
+      <c r="AH19">
+        <v>0</v>
+      </c>
+      <c r="AI19">
+        <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:34">
+    <row r="20" spans="1:35">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C20">
         <v>300609</v>
       </c>
       <c r="D20" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E20">
         <v>0.5</v>
@@ -2433,7 +2757,7 @@
         <v>23147.55</v>
       </c>
       <c r="J20" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -2474,8 +2798,23 @@
       <c r="W20">
         <v>0.15</v>
       </c>
+      <c r="X20">
+        <v>10.89</v>
+      </c>
+      <c r="Y20">
+        <v>47.79</v>
+      </c>
+      <c r="Z20">
+        <v>13.65</v>
+      </c>
       <c r="AC20" t="s">
-        <v>139</v>
+        <v>140</v>
+      </c>
+      <c r="AD20">
+        <v>0</v>
+      </c>
+      <c r="AE20">
+        <v>1</v>
       </c>
       <c r="AF20">
         <v>0</v>
@@ -2483,22 +2822,25 @@
       <c r="AG20">
         <v>5.200632572174072</v>
       </c>
-      <c r="AH20" t="s">
-        <v>141</v>
+      <c r="AH20">
+        <v>0</v>
+      </c>
+      <c r="AI20">
+        <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:34">
+    <row r="21" spans="1:35">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C21">
         <v>300624</v>
       </c>
       <c r="D21" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E21">
         <v>11.01</v>
@@ -2516,7 +2858,7 @@
         <v>358966.12</v>
       </c>
       <c r="J21" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="K21">
         <v>1</v>
@@ -2557,8 +2899,23 @@
       <c r="W21">
         <v>-0.43</v>
       </c>
+      <c r="X21">
+        <v>-2.68</v>
+      </c>
+      <c r="Y21">
+        <v>88.70999999999999</v>
+      </c>
+      <c r="Z21">
+        <v>-0.99</v>
+      </c>
       <c r="AC21" t="s">
-        <v>139</v>
+        <v>140</v>
+      </c>
+      <c r="AD21">
+        <v>0</v>
+      </c>
+      <c r="AE21">
+        <v>0</v>
       </c>
       <c r="AF21">
         <v>0</v>
@@ -2566,22 +2923,25 @@
       <c r="AG21">
         <v>5.036647796630859</v>
       </c>
-      <c r="AH21" t="s">
-        <v>141</v>
+      <c r="AH21">
+        <v>0</v>
+      </c>
+      <c r="AI21">
+        <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:34">
+    <row r="22" spans="1:35">
       <c r="A22">
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C22">
         <v>300648</v>
       </c>
       <c r="D22" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E22">
         <v>0.77</v>
@@ -2599,7 +2959,7 @@
         <v>40660.35</v>
       </c>
       <c r="J22" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="K22">
         <v>2</v>
@@ -2640,8 +3000,23 @@
       <c r="W22">
         <v>0.25</v>
       </c>
+      <c r="X22">
+        <v>14.9</v>
+      </c>
+      <c r="Y22">
+        <v>50.17</v>
+      </c>
+      <c r="Z22">
+        <v>15.52</v>
+      </c>
       <c r="AC22" t="s">
-        <v>140</v>
+        <v>141</v>
+      </c>
+      <c r="AD22">
+        <v>0</v>
+      </c>
+      <c r="AE22">
+        <v>1</v>
       </c>
       <c r="AF22">
         <v>0</v>
@@ -2649,22 +3024,25 @@
       <c r="AG22">
         <v>4.603989124298096</v>
       </c>
-      <c r="AH22" t="s">
-        <v>141</v>
+      <c r="AH22">
+        <v>0</v>
+      </c>
+      <c r="AI22">
+        <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:34">
+    <row r="23" spans="1:35">
       <c r="A23">
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C23">
         <v>300683</v>
       </c>
       <c r="D23" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E23">
         <v>5.73</v>
@@ -2682,7 +3060,7 @@
         <v>106068.78</v>
       </c>
       <c r="J23" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="K23">
         <v>10</v>
@@ -2723,8 +3101,23 @@
       <c r="W23">
         <v>0.63</v>
       </c>
+      <c r="X23">
+        <v>-2.37</v>
+      </c>
+      <c r="Y23">
+        <v>60.19</v>
+      </c>
+      <c r="Z23">
+        <v>1.06</v>
+      </c>
       <c r="AC23" t="s">
-        <v>139</v>
+        <v>140</v>
+      </c>
+      <c r="AD23">
+        <v>0</v>
+      </c>
+      <c r="AE23">
+        <v>0</v>
       </c>
       <c r="AF23">
         <v>0</v>
@@ -2732,22 +3125,25 @@
       <c r="AG23">
         <v>1.366816282272339</v>
       </c>
-      <c r="AH23" t="s">
-        <v>141</v>
+      <c r="AH23">
+        <v>0</v>
+      </c>
+      <c r="AI23">
+        <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:34">
+    <row r="24" spans="1:35">
       <c r="A24">
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C24">
         <v>300684</v>
       </c>
       <c r="D24" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E24">
         <v>0.47</v>
@@ -2765,7 +3161,7 @@
         <v>96332.49000000001</v>
       </c>
       <c r="J24" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -2806,8 +3202,23 @@
       <c r="W24">
         <v>-0.67</v>
       </c>
+      <c r="X24">
+        <v>-0.76</v>
+      </c>
+      <c r="Y24">
+        <v>31.24</v>
+      </c>
+      <c r="Z24">
+        <v>3.62</v>
+      </c>
       <c r="AC24" t="s">
-        <v>139</v>
+        <v>140</v>
+      </c>
+      <c r="AD24">
+        <v>0</v>
+      </c>
+      <c r="AE24">
+        <v>0</v>
       </c>
       <c r="AF24">
         <v>0</v>
@@ -2815,22 +3226,25 @@
       <c r="AG24">
         <v>4.201848030090332</v>
       </c>
-      <c r="AH24" t="s">
-        <v>141</v>
+      <c r="AH24">
+        <v>0</v>
+      </c>
+      <c r="AI24">
+        <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:34">
+    <row r="25" spans="1:35">
       <c r="A25">
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C25">
         <v>300731</v>
       </c>
       <c r="D25" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E25">
         <v>-2.04</v>
@@ -2848,7 +3262,7 @@
         <v>82315.07000000001</v>
       </c>
       <c r="J25" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="K25">
         <v>1</v>
@@ -2889,8 +3303,23 @@
       <c r="W25">
         <v>-2.35</v>
       </c>
+      <c r="X25">
+        <v>12.95</v>
+      </c>
+      <c r="Y25">
+        <v>38.6</v>
+      </c>
+      <c r="Z25">
+        <v>18.15</v>
+      </c>
       <c r="AC25" t="s">
-        <v>139</v>
+        <v>140</v>
+      </c>
+      <c r="AD25">
+        <v>0</v>
+      </c>
+      <c r="AE25">
+        <v>1</v>
       </c>
       <c r="AF25">
         <v>0</v>
@@ -2898,22 +3327,25 @@
       <c r="AG25">
         <v>7.272331714630127</v>
       </c>
-      <c r="AH25" t="s">
-        <v>141</v>
+      <c r="AH25">
+        <v>0</v>
+      </c>
+      <c r="AI25">
+        <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:34">
+    <row r="26" spans="1:35">
       <c r="A26">
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C26">
         <v>300732</v>
       </c>
       <c r="D26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E26">
         <v>-5.76</v>
@@ -2931,7 +3363,7 @@
         <v>87805.91</v>
       </c>
       <c r="J26" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2972,8 +3404,23 @@
       <c r="W26">
         <v>-0.22</v>
       </c>
+      <c r="X26">
+        <v>-3.7</v>
+      </c>
+      <c r="Y26">
+        <v>10.98</v>
+      </c>
+      <c r="Z26">
+        <v>1.67</v>
+      </c>
       <c r="AC26" t="s">
-        <v>139</v>
+        <v>140</v>
+      </c>
+      <c r="AD26">
+        <v>0</v>
+      </c>
+      <c r="AE26">
+        <v>0</v>
       </c>
       <c r="AF26">
         <v>0</v>
@@ -2981,22 +3428,25 @@
       <c r="AG26">
         <v>9.046448707580566</v>
       </c>
-      <c r="AH26" t="s">
-        <v>141</v>
+      <c r="AH26">
+        <v>0</v>
+      </c>
+      <c r="AI26">
+        <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:34">
+    <row r="27" spans="1:35">
       <c r="A27">
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C27">
         <v>300747</v>
       </c>
       <c r="D27" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E27">
         <v>0.1</v>
@@ -3014,7 +3464,7 @@
         <v>103323.42</v>
       </c>
       <c r="J27" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="K27">
         <v>12</v>
@@ -3055,8 +3505,23 @@
       <c r="W27">
         <v>0.54</v>
       </c>
+      <c r="X27">
+        <v>5.55</v>
+      </c>
+      <c r="Y27">
+        <v>31.65</v>
+      </c>
+      <c r="Z27">
+        <v>6.46</v>
+      </c>
       <c r="AC27" t="s">
-        <v>139</v>
+        <v>140</v>
+      </c>
+      <c r="AD27">
+        <v>0</v>
+      </c>
+      <c r="AE27">
+        <v>0</v>
       </c>
       <c r="AF27">
         <v>1</v>
@@ -3064,22 +3529,25 @@
       <c r="AG27">
         <v>5.346723556518555</v>
       </c>
-      <c r="AH27" t="s">
-        <v>141</v>
+      <c r="AH27">
+        <v>0</v>
+      </c>
+      <c r="AI27">
+        <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:34">
+    <row r="28" spans="1:35">
       <c r="A28">
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C28">
         <v>300830</v>
       </c>
       <c r="D28" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E28">
         <v>3.28</v>
@@ -3097,7 +3565,7 @@
         <v>72699.83</v>
       </c>
       <c r="J28" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="K28">
         <v>1</v>
@@ -3138,8 +3606,23 @@
       <c r="W28">
         <v>-0.11</v>
       </c>
+      <c r="X28">
+        <v>19.96</v>
+      </c>
+      <c r="Y28">
+        <v>13.58</v>
+      </c>
+      <c r="Z28">
+        <v>19.96</v>
+      </c>
       <c r="AC28" t="s">
-        <v>139</v>
+        <v>140</v>
+      </c>
+      <c r="AD28">
+        <v>0</v>
+      </c>
+      <c r="AE28">
+        <v>1</v>
       </c>
       <c r="AF28">
         <v>0</v>
@@ -3147,22 +3630,25 @@
       <c r="AG28">
         <v>3.273349046707153</v>
       </c>
-      <c r="AH28" t="s">
-        <v>141</v>
+      <c r="AH28">
+        <v>0</v>
+      </c>
+      <c r="AI28">
+        <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:34">
+    <row r="29" spans="1:35">
       <c r="A29">
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C29">
         <v>300841</v>
       </c>
       <c r="D29" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E29">
         <v>2.52</v>
@@ -3180,7 +3666,7 @@
         <v>84890.96000000001</v>
       </c>
       <c r="J29" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="K29">
         <v>2</v>
@@ -3221,8 +3707,23 @@
       <c r="W29">
         <v>0.49</v>
       </c>
+      <c r="X29">
+        <v>-2.67</v>
+      </c>
+      <c r="Y29">
+        <v>79.40000000000001</v>
+      </c>
+      <c r="Z29">
+        <v>-0.03</v>
+      </c>
       <c r="AC29" t="s">
-        <v>140</v>
+        <v>141</v>
+      </c>
+      <c r="AD29">
+        <v>0</v>
+      </c>
+      <c r="AE29">
+        <v>0</v>
       </c>
       <c r="AF29">
         <v>1</v>
@@ -3230,22 +3731,25 @@
       <c r="AG29">
         <v>3.271584033966064</v>
       </c>
-      <c r="AH29" t="s">
-        <v>142</v>
+      <c r="AH29">
+        <v>1</v>
+      </c>
+      <c r="AI29">
+        <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:34">
+    <row r="30" spans="1:35">
       <c r="A30">
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C30">
         <v>300869</v>
       </c>
       <c r="D30" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E30">
         <v>-4.35</v>
@@ -3263,7 +3767,7 @@
         <v>57138.61</v>
       </c>
       <c r="J30" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="K30">
         <v>5</v>
@@ -3304,8 +3808,23 @@
       <c r="W30">
         <v>0.53</v>
       </c>
+      <c r="X30">
+        <v>3.74</v>
+      </c>
+      <c r="Y30">
+        <v>20.85</v>
+      </c>
+      <c r="Z30">
+        <v>5.3</v>
+      </c>
       <c r="AC30" t="s">
-        <v>139</v>
+        <v>140</v>
+      </c>
+      <c r="AD30">
+        <v>0</v>
+      </c>
+      <c r="AE30">
+        <v>0</v>
       </c>
       <c r="AF30">
         <v>0</v>
@@ -3313,22 +3832,25 @@
       <c r="AG30">
         <v>5.245626449584961</v>
       </c>
-      <c r="AH30" t="s">
-        <v>141</v>
+      <c r="AH30">
+        <v>0</v>
+      </c>
+      <c r="AI30">
+        <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:34">
+    <row r="31" spans="1:35">
       <c r="A31">
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C31">
         <v>300877</v>
       </c>
       <c r="D31" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E31">
         <v>0.73</v>
@@ -3346,7 +3868,7 @@
         <v>34799.33</v>
       </c>
       <c r="J31" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="K31">
         <v>6</v>
@@ -3387,8 +3909,23 @@
       <c r="W31">
         <v>0.5600000000000001</v>
       </c>
+      <c r="X31">
+        <v>-2.82</v>
+      </c>
+      <c r="Y31">
+        <v>30.65</v>
+      </c>
+      <c r="Z31">
+        <v>0.36</v>
+      </c>
       <c r="AC31" t="s">
-        <v>139</v>
+        <v>140</v>
+      </c>
+      <c r="AD31">
+        <v>0</v>
+      </c>
+      <c r="AE31">
+        <v>0</v>
       </c>
       <c r="AF31">
         <v>1</v>
@@ -3396,22 +3933,25 @@
       <c r="AG31">
         <v>3.80543065071106</v>
       </c>
-      <c r="AH31" t="s">
-        <v>141</v>
+      <c r="AH31">
+        <v>0</v>
+      </c>
+      <c r="AI31">
+        <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:34">
+    <row r="32" spans="1:35">
       <c r="A32">
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C32">
         <v>300885</v>
       </c>
       <c r="D32" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E32">
         <v>-5.23</v>
@@ -3429,7 +3969,7 @@
         <v>70012.22</v>
       </c>
       <c r="J32" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="K32">
         <v>8</v>
@@ -3470,8 +4010,23 @@
       <c r="W32">
         <v>-0.55</v>
       </c>
+      <c r="X32">
+        <v>9.220000000000001</v>
+      </c>
+      <c r="Y32">
+        <v>23.95</v>
+      </c>
+      <c r="Z32">
+        <v>9.31</v>
+      </c>
       <c r="AC32" t="s">
-        <v>139</v>
+        <v>140</v>
+      </c>
+      <c r="AD32">
+        <v>1</v>
+      </c>
+      <c r="AE32">
+        <v>1</v>
       </c>
       <c r="AF32">
         <v>1</v>
@@ -3479,22 +4034,25 @@
       <c r="AG32">
         <v>5.128418922424316</v>
       </c>
-      <c r="AH32" t="s">
-        <v>141</v>
+      <c r="AH32">
+        <v>0</v>
+      </c>
+      <c r="AI32">
+        <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:34">
+    <row r="33" spans="1:35">
       <c r="A33">
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C33">
         <v>300950</v>
       </c>
       <c r="D33" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E33">
         <v>9.98</v>
@@ -3512,7 +4070,7 @@
         <v>90504.32000000001</v>
       </c>
       <c r="J33" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="K33">
         <v>1</v>
@@ -3553,8 +4111,23 @@
       <c r="W33">
         <v>0.91</v>
       </c>
+      <c r="X33">
+        <v>-3.39</v>
+      </c>
+      <c r="Y33">
+        <v>33.73</v>
+      </c>
+      <c r="Z33">
+        <v>3.06</v>
+      </c>
       <c r="AC33" t="s">
-        <v>140</v>
+        <v>141</v>
+      </c>
+      <c r="AD33">
+        <v>0</v>
+      </c>
+      <c r="AE33">
+        <v>0</v>
       </c>
       <c r="AF33">
         <v>0</v>
@@ -3562,22 +4135,25 @@
       <c r="AG33">
         <v>1.395271182060242</v>
       </c>
-      <c r="AH33" t="s">
-        <v>141</v>
+      <c r="AH33">
+        <v>0</v>
+      </c>
+      <c r="AI33">
+        <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:34">
+    <row r="34" spans="1:35">
       <c r="A34">
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C34">
         <v>300966</v>
       </c>
       <c r="D34" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E34">
         <v>8.41</v>
@@ -3595,7 +4171,7 @@
         <v>80803.32000000001</v>
       </c>
       <c r="J34" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="K34">
         <v>1</v>
@@ -3636,8 +4212,23 @@
       <c r="W34">
         <v>-2.84</v>
       </c>
+      <c r="X34">
+        <v>6.18</v>
+      </c>
+      <c r="Y34">
+        <v>29.77</v>
+      </c>
+      <c r="Z34">
+        <v>11.58</v>
+      </c>
       <c r="AC34" t="s">
-        <v>139</v>
+        <v>140</v>
+      </c>
+      <c r="AD34">
+        <v>0</v>
+      </c>
+      <c r="AE34">
+        <v>1</v>
       </c>
       <c r="AF34">
         <v>0</v>
@@ -3645,22 +4236,25 @@
       <c r="AG34">
         <v>2.229984760284424</v>
       </c>
-      <c r="AH34" t="s">
-        <v>141</v>
+      <c r="AH34">
+        <v>0</v>
+      </c>
+      <c r="AI34">
+        <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:34">
+    <row r="35" spans="1:35">
       <c r="A35">
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C35">
         <v>300987</v>
       </c>
       <c r="D35" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E35">
         <v>-0.77</v>
@@ -3678,7 +4272,7 @@
         <v>37419.99</v>
       </c>
       <c r="J35" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="K35">
         <v>3</v>
@@ -3719,8 +4313,23 @@
       <c r="W35">
         <v>-0.26</v>
       </c>
+      <c r="X35">
+        <v>-2.93</v>
+      </c>
+      <c r="Y35">
+        <v>22.38</v>
+      </c>
+      <c r="Z35">
+        <v>2.57</v>
+      </c>
       <c r="AC35" t="s">
-        <v>139</v>
+        <v>140</v>
+      </c>
+      <c r="AD35">
+        <v>0</v>
+      </c>
+      <c r="AE35">
+        <v>0</v>
       </c>
       <c r="AF35">
         <v>0</v>
@@ -3728,22 +4337,25 @@
       <c r="AG35">
         <v>1.579756021499634</v>
       </c>
-      <c r="AH35" t="s">
-        <v>141</v>
+      <c r="AH35">
+        <v>0</v>
+      </c>
+      <c r="AI35">
+        <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:34">
+    <row r="36" spans="1:35">
       <c r="A36">
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C36">
         <v>301007</v>
       </c>
       <c r="D36" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E36">
         <v>-1.97</v>
@@ -3761,7 +4373,7 @@
         <v>64192.58</v>
       </c>
       <c r="J36" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="K36">
         <v>6</v>
@@ -3802,8 +4414,23 @@
       <c r="W36">
         <v>1.17</v>
       </c>
+      <c r="X36">
+        <v>4.13</v>
+      </c>
+      <c r="Y36">
+        <v>39.38</v>
+      </c>
+      <c r="Z36">
+        <v>4.29</v>
+      </c>
       <c r="AC36" t="s">
-        <v>139</v>
+        <v>140</v>
+      </c>
+      <c r="AD36">
+        <v>0</v>
+      </c>
+      <c r="AE36">
+        <v>0</v>
       </c>
       <c r="AF36">
         <v>1</v>
@@ -3811,22 +4438,25 @@
       <c r="AG36">
         <v>12.85492324829102</v>
       </c>
-      <c r="AH36" t="s">
-        <v>141</v>
+      <c r="AH36">
+        <v>0</v>
+      </c>
+      <c r="AI36">
+        <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:34">
+    <row r="37" spans="1:35">
       <c r="A37">
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C37">
         <v>301038</v>
       </c>
       <c r="D37" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E37">
         <v>3.1</v>
@@ -3844,7 +4474,7 @@
         <v>84937.98</v>
       </c>
       <c r="J37" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="K37">
         <v>4</v>
@@ -3885,8 +4515,23 @@
       <c r="W37">
         <v>-0.04</v>
       </c>
+      <c r="X37">
+        <v>-3.8</v>
+      </c>
+      <c r="Y37">
+        <v>33.25</v>
+      </c>
+      <c r="Z37">
+        <v>5.39</v>
+      </c>
       <c r="AC37" t="s">
-        <v>139</v>
+        <v>140</v>
+      </c>
+      <c r="AD37">
+        <v>0</v>
+      </c>
+      <c r="AE37">
+        <v>0</v>
       </c>
       <c r="AF37">
         <v>0</v>
@@ -3894,22 +4539,25 @@
       <c r="AG37">
         <v>4.530855178833008</v>
       </c>
-      <c r="AH37" t="s">
-        <v>141</v>
+      <c r="AH37">
+        <v>0</v>
+      </c>
+      <c r="AI37">
+        <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:34">
+    <row r="38" spans="1:35">
       <c r="A38">
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C38">
         <v>301052</v>
       </c>
       <c r="D38" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E38">
         <v>16.41</v>
@@ -3927,7 +4575,7 @@
         <v>69214.56</v>
       </c>
       <c r="J38" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="K38">
         <v>1</v>
@@ -3968,8 +4616,23 @@
       <c r="W38">
         <v>0.71</v>
       </c>
+      <c r="X38">
+        <v>1.59</v>
+      </c>
+      <c r="Y38">
+        <v>64.83</v>
+      </c>
+      <c r="Z38">
+        <v>2.35</v>
+      </c>
       <c r="AC38" t="s">
-        <v>140</v>
+        <v>141</v>
+      </c>
+      <c r="AD38">
+        <v>0</v>
+      </c>
+      <c r="AE38">
+        <v>0</v>
       </c>
       <c r="AF38">
         <v>0</v>
@@ -3977,22 +4640,25 @@
       <c r="AG38">
         <v>1.674487709999084</v>
       </c>
-      <c r="AH38" t="s">
-        <v>141</v>
+      <c r="AH38">
+        <v>0</v>
+      </c>
+      <c r="AI38">
+        <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:34">
+    <row r="39" spans="1:35">
       <c r="A39">
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C39">
         <v>301095</v>
       </c>
       <c r="D39" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E39">
         <v>-0.1</v>
@@ -4010,7 +4676,7 @@
         <v>40577.41</v>
       </c>
       <c r="J39" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="K39">
         <v>3</v>
@@ -4051,8 +4717,23 @@
       <c r="W39">
         <v>-0.43</v>
       </c>
+      <c r="X39">
+        <v>0</v>
+      </c>
+      <c r="Y39">
+        <v>63.42</v>
+      </c>
+      <c r="Z39">
+        <v>0.75</v>
+      </c>
       <c r="AC39" t="s">
-        <v>139</v>
+        <v>140</v>
+      </c>
+      <c r="AD39">
+        <v>0</v>
+      </c>
+      <c r="AE39">
+        <v>0</v>
       </c>
       <c r="AF39">
         <v>0</v>
@@ -4060,22 +4741,25 @@
       <c r="AG39">
         <v>2.943494558334351</v>
       </c>
-      <c r="AH39" t="s">
-        <v>141</v>
+      <c r="AH39">
+        <v>0</v>
+      </c>
+      <c r="AI39">
+        <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:34">
+    <row r="40" spans="1:35">
       <c r="A40">
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C40">
         <v>301150</v>
       </c>
       <c r="D40" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E40">
         <v>-1.93</v>
@@ -4093,7 +4777,7 @@
         <v>56450.19</v>
       </c>
       <c r="J40" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="K40">
         <v>6</v>
@@ -4134,8 +4818,23 @@
       <c r="W40">
         <v>-0.34</v>
       </c>
+      <c r="X40">
+        <v>3.78</v>
+      </c>
+      <c r="Y40">
+        <v>30.08</v>
+      </c>
+      <c r="Z40">
+        <v>7.39</v>
+      </c>
       <c r="AC40" t="s">
-        <v>139</v>
+        <v>140</v>
+      </c>
+      <c r="AD40">
+        <v>0</v>
+      </c>
+      <c r="AE40">
+        <v>1</v>
       </c>
       <c r="AF40">
         <v>0</v>
@@ -4143,22 +4842,25 @@
       <c r="AG40">
         <v>6.335911750793457</v>
       </c>
-      <c r="AH40" t="s">
-        <v>141</v>
+      <c r="AH40">
+        <v>0</v>
+      </c>
+      <c r="AI40">
+        <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:34">
+    <row r="41" spans="1:35">
       <c r="A41">
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C41">
         <v>301200</v>
       </c>
       <c r="D41" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E41">
         <v>-4.86</v>
@@ -4176,7 +4878,7 @@
         <v>90091.95</v>
       </c>
       <c r="J41" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="K41">
         <v>7</v>
@@ -4217,8 +4919,23 @@
       <c r="W41">
         <v>-0.6</v>
       </c>
+      <c r="X41">
+        <v>-0.83</v>
+      </c>
+      <c r="Y41">
+        <v>73.88</v>
+      </c>
+      <c r="Z41">
+        <v>0.2</v>
+      </c>
       <c r="AC41" t="s">
-        <v>139</v>
+        <v>140</v>
+      </c>
+      <c r="AD41">
+        <v>0</v>
+      </c>
+      <c r="AE41">
+        <v>0</v>
       </c>
       <c r="AF41">
         <v>0</v>
@@ -4226,22 +4943,25 @@
       <c r="AG41">
         <v>5.460078239440918</v>
       </c>
-      <c r="AH41" t="s">
-        <v>141</v>
+      <c r="AH41">
+        <v>0</v>
+      </c>
+      <c r="AI41">
+        <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:34">
+    <row r="42" spans="1:35">
       <c r="A42">
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C42">
         <v>301213</v>
       </c>
       <c r="D42" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E42">
         <v>12.75</v>
@@ -4259,7 +4979,7 @@
         <v>70140.11</v>
       </c>
       <c r="J42" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="K42">
         <v>1</v>
@@ -4300,8 +5020,23 @@
       <c r="W42">
         <v>2.22</v>
       </c>
+      <c r="X42">
+        <v>5</v>
+      </c>
+      <c r="Y42">
+        <v>72</v>
+      </c>
+      <c r="Z42">
+        <v>5.9</v>
+      </c>
       <c r="AC42" t="s">
-        <v>140</v>
+        <v>141</v>
+      </c>
+      <c r="AD42">
+        <v>0</v>
+      </c>
+      <c r="AE42">
+        <v>0</v>
       </c>
       <c r="AF42">
         <v>0</v>
@@ -4309,22 +5044,25 @@
       <c r="AG42">
         <v>0.6156962513923645</v>
       </c>
-      <c r="AH42" t="s">
-        <v>141</v>
+      <c r="AH42">
+        <v>0</v>
+      </c>
+      <c r="AI42">
+        <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:34">
+    <row r="43" spans="1:35">
       <c r="A43">
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C43">
         <v>301217</v>
       </c>
       <c r="D43" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E43">
         <v>-3.5</v>
@@ -4342,7 +5080,7 @@
         <v>160960.76</v>
       </c>
       <c r="J43" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="K43">
         <v>20</v>
@@ -4383,8 +5121,23 @@
       <c r="W43">
         <v>0.02</v>
       </c>
+      <c r="X43">
+        <v>-1</v>
+      </c>
+      <c r="Y43">
+        <v>25.7</v>
+      </c>
+      <c r="Z43">
+        <v>2.35</v>
+      </c>
       <c r="AC43" t="s">
-        <v>139</v>
+        <v>140</v>
+      </c>
+      <c r="AD43">
+        <v>0</v>
+      </c>
+      <c r="AE43">
+        <v>0</v>
       </c>
       <c r="AF43">
         <v>1</v>
@@ -4392,22 +5145,25 @@
       <c r="AG43">
         <v>9.571014404296875</v>
       </c>
-      <c r="AH43" t="s">
-        <v>141</v>
+      <c r="AH43">
+        <v>0</v>
+      </c>
+      <c r="AI43">
+        <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:34">
+    <row r="44" spans="1:35">
       <c r="A44">
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C44">
         <v>301235</v>
       </c>
       <c r="D44" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E44">
         <v>-5.97</v>
@@ -4425,7 +5181,7 @@
         <v>51931.92</v>
       </c>
       <c r="J44" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="K44">
         <v>2</v>
@@ -4466,8 +5222,23 @@
       <c r="W44">
         <v>0.43</v>
       </c>
+      <c r="X44">
+        <v>-6.59</v>
+      </c>
+      <c r="Y44">
+        <v>32.01</v>
+      </c>
+      <c r="Z44">
+        <v>-3.29</v>
+      </c>
       <c r="AC44" t="s">
-        <v>140</v>
+        <v>141</v>
+      </c>
+      <c r="AD44">
+        <v>0</v>
+      </c>
+      <c r="AE44">
+        <v>0</v>
       </c>
       <c r="AF44">
         <v>0</v>
@@ -4475,22 +5246,25 @@
       <c r="AG44">
         <v>5.069411277770996</v>
       </c>
-      <c r="AH44" t="s">
-        <v>141</v>
+      <c r="AH44">
+        <v>0</v>
+      </c>
+      <c r="AI44">
+        <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:34">
+    <row r="45" spans="1:35">
       <c r="A45">
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C45">
         <v>301285</v>
       </c>
       <c r="D45" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E45">
         <v>3.63</v>
@@ -4508,7 +5282,7 @@
         <v>50127.12</v>
       </c>
       <c r="J45" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="K45">
         <v>5</v>
@@ -4549,8 +5323,23 @@
       <c r="W45">
         <v>-0.22</v>
       </c>
+      <c r="X45">
+        <v>-0.45</v>
+      </c>
+      <c r="Y45">
+        <v>42.5</v>
+      </c>
+      <c r="Z45">
+        <v>1.26</v>
+      </c>
       <c r="AC45" t="s">
-        <v>139</v>
+        <v>140</v>
+      </c>
+      <c r="AD45">
+        <v>0</v>
+      </c>
+      <c r="AE45">
+        <v>0</v>
       </c>
       <c r="AF45">
         <v>0</v>
@@ -4558,22 +5347,25 @@
       <c r="AG45">
         <v>6.619840621948242</v>
       </c>
-      <c r="AH45" t="s">
-        <v>141</v>
+      <c r="AH45">
+        <v>0</v>
+      </c>
+      <c r="AI45">
+        <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:34">
+    <row r="46" spans="1:35">
       <c r="A46">
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C46">
         <v>301312</v>
       </c>
       <c r="D46" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E46">
         <v>4.24</v>
@@ -4591,7 +5383,7 @@
         <v>47335.57</v>
       </c>
       <c r="J46" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="K46">
         <v>1</v>
@@ -4632,8 +5424,23 @@
       <c r="W46">
         <v>0.8</v>
       </c>
+      <c r="X46">
+        <v>0.37</v>
+      </c>
+      <c r="Y46">
+        <v>46.37</v>
+      </c>
+      <c r="Z46">
+        <v>0.41</v>
+      </c>
       <c r="AC46" t="s">
-        <v>140</v>
+        <v>141</v>
+      </c>
+      <c r="AD46">
+        <v>0</v>
+      </c>
+      <c r="AE46">
+        <v>0</v>
       </c>
       <c r="AF46">
         <v>0</v>
@@ -4641,22 +5448,25 @@
       <c r="AG46">
         <v>0.1027584075927734</v>
       </c>
-      <c r="AH46" t="s">
-        <v>141</v>
+      <c r="AH46">
+        <v>0</v>
+      </c>
+      <c r="AI46">
+        <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:34">
+    <row r="47" spans="1:35">
       <c r="A47">
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C47">
         <v>301357</v>
       </c>
       <c r="D47" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E47">
         <v>-7.09</v>
@@ -4674,7 +5484,7 @@
         <v>140505.73</v>
       </c>
       <c r="J47" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="K47">
         <v>4</v>
@@ -4715,8 +5525,23 @@
       <c r="W47">
         <v>-4.14</v>
       </c>
+      <c r="X47">
+        <v>20</v>
+      </c>
+      <c r="Y47">
+        <v>114.78</v>
+      </c>
+      <c r="Z47">
+        <v>20</v>
+      </c>
       <c r="AC47" t="s">
-        <v>139</v>
+        <v>140</v>
+      </c>
+      <c r="AD47">
+        <v>0</v>
+      </c>
+      <c r="AE47">
+        <v>1</v>
       </c>
       <c r="AF47">
         <v>0</v>
@@ -4724,22 +5549,25 @@
       <c r="AG47">
         <v>6.224778652191162</v>
       </c>
-      <c r="AH47" t="s">
-        <v>141</v>
+      <c r="AH47">
+        <v>0</v>
+      </c>
+      <c r="AI47">
+        <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:34">
+    <row r="48" spans="1:35">
       <c r="A48">
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C48">
         <v>301389</v>
       </c>
       <c r="D48" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E48">
         <v>12.06</v>
@@ -4757,7 +5585,7 @@
         <v>128979.3</v>
       </c>
       <c r="J48" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="K48">
         <v>19</v>
@@ -4798,8 +5626,23 @@
       <c r="W48">
         <v>-0.7</v>
       </c>
+      <c r="X48">
+        <v>20</v>
+      </c>
+      <c r="Y48">
+        <v>51.72</v>
+      </c>
+      <c r="Z48">
+        <v>20</v>
+      </c>
       <c r="AC48" t="s">
-        <v>139</v>
+        <v>140</v>
+      </c>
+      <c r="AD48">
+        <v>0</v>
+      </c>
+      <c r="AE48">
+        <v>1</v>
       </c>
       <c r="AF48">
         <v>0</v>
@@ -4807,22 +5650,25 @@
       <c r="AG48">
         <v>0.9007881283760071</v>
       </c>
-      <c r="AH48" t="s">
-        <v>141</v>
+      <c r="AH48">
+        <v>0</v>
+      </c>
+      <c r="AI48">
+        <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:34">
+    <row r="49" spans="1:35">
       <c r="A49">
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C49">
         <v>301489</v>
       </c>
       <c r="D49" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E49">
         <v>5.17</v>
@@ -4840,7 +5686,7 @@
         <v>136934.26</v>
       </c>
       <c r="J49" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="K49">
         <v>2</v>
@@ -4881,8 +5727,23 @@
       <c r="W49">
         <v>-2.25</v>
       </c>
+      <c r="X49">
+        <v>12.02</v>
+      </c>
+      <c r="Y49">
+        <v>126</v>
+      </c>
+      <c r="Z49">
+        <v>15.58</v>
+      </c>
       <c r="AC49" t="s">
-        <v>139</v>
+        <v>140</v>
+      </c>
+      <c r="AD49">
+        <v>0</v>
+      </c>
+      <c r="AE49">
+        <v>1</v>
       </c>
       <c r="AF49">
         <v>0</v>
@@ -4890,22 +5751,25 @@
       <c r="AG49">
         <v>1.936685800552368</v>
       </c>
-      <c r="AH49" t="s">
-        <v>141</v>
+      <c r="AH49">
+        <v>0</v>
+      </c>
+      <c r="AI49">
+        <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:34">
+    <row r="50" spans="1:35">
       <c r="A50">
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C50">
         <v>301511</v>
       </c>
       <c r="D50" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E50">
         <v>-0.5</v>
@@ -4923,7 +5787,7 @@
         <v>230844.85</v>
       </c>
       <c r="J50" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="K50">
         <v>29</v>
@@ -4964,8 +5828,23 @@
       <c r="W50">
         <v>0.08</v>
       </c>
+      <c r="X50">
+        <v>-1.01</v>
+      </c>
+      <c r="Y50">
+        <v>35.86</v>
+      </c>
+      <c r="Z50">
+        <v>0.31</v>
+      </c>
       <c r="AC50" t="s">
-        <v>139</v>
+        <v>140</v>
+      </c>
+      <c r="AD50">
+        <v>0</v>
+      </c>
+      <c r="AE50">
+        <v>0</v>
       </c>
       <c r="AF50">
         <v>1</v>
@@ -4973,22 +5852,25 @@
       <c r="AG50">
         <v>7.328482151031494</v>
       </c>
-      <c r="AH50" t="s">
-        <v>141</v>
+      <c r="AH50">
+        <v>0</v>
+      </c>
+      <c r="AI50">
+        <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:34">
+    <row r="51" spans="1:35">
       <c r="A51">
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C51">
         <v>301529</v>
       </c>
       <c r="D51" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E51">
         <v>0.9</v>
@@ -5006,7 +5888,7 @@
         <v>25972.13</v>
       </c>
       <c r="J51" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="K51">
         <v>10</v>
@@ -5047,8 +5929,23 @@
       <c r="W51">
         <v>-0.19</v>
       </c>
+      <c r="X51">
+        <v>14.27</v>
+      </c>
+      <c r="Y51">
+        <v>71</v>
+      </c>
+      <c r="Z51">
+        <v>15.39</v>
+      </c>
       <c r="AC51" t="s">
-        <v>139</v>
+        <v>140</v>
+      </c>
+      <c r="AD51">
+        <v>0</v>
+      </c>
+      <c r="AE51">
+        <v>1</v>
       </c>
       <c r="AF51">
         <v>0</v>
@@ -5056,22 +5953,25 @@
       <c r="AG51">
         <v>4.998945713043213</v>
       </c>
-      <c r="AH51" t="s">
-        <v>141</v>
+      <c r="AH51">
+        <v>0</v>
+      </c>
+      <c r="AI51">
+        <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:34">
+    <row r="52" spans="1:35">
       <c r="A52">
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C52">
         <v>688011</v>
       </c>
       <c r="D52" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E52">
         <v>7.01</v>
@@ -5089,7 +5989,7 @@
         <v>41778.29</v>
       </c>
       <c r="J52" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="K52">
         <v>1</v>
@@ -5130,8 +6030,23 @@
       <c r="W52">
         <v>0.23</v>
       </c>
+      <c r="X52">
+        <v>13.54</v>
+      </c>
+      <c r="Y52">
+        <v>49.96</v>
+      </c>
+      <c r="Z52">
+        <v>15.62</v>
+      </c>
       <c r="AC52" t="s">
-        <v>140</v>
+        <v>141</v>
+      </c>
+      <c r="AD52">
+        <v>0</v>
+      </c>
+      <c r="AE52">
+        <v>1</v>
       </c>
       <c r="AF52">
         <v>0</v>
@@ -5139,22 +6054,25 @@
       <c r="AG52">
         <v>2.182187557220459</v>
       </c>
-      <c r="AH52" t="s">
-        <v>141</v>
+      <c r="AH52">
+        <v>0</v>
+      </c>
+      <c r="AI52">
+        <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:34">
+    <row r="53" spans="1:35">
       <c r="A53">
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C53">
         <v>688020</v>
       </c>
       <c r="D53" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E53">
         <v>-5.23</v>
@@ -5172,7 +6090,7 @@
         <v>46641.32</v>
       </c>
       <c r="J53" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="K53">
         <v>3</v>
@@ -5213,8 +6131,23 @@
       <c r="W53">
         <v>0.09</v>
       </c>
+      <c r="X53">
+        <v>4.2</v>
+      </c>
+      <c r="Y53">
+        <v>57.62</v>
+      </c>
+      <c r="Z53">
+        <v>7.08</v>
+      </c>
       <c r="AC53" t="s">
-        <v>139</v>
+        <v>140</v>
+      </c>
+      <c r="AD53">
+        <v>0</v>
+      </c>
+      <c r="AE53">
+        <v>1</v>
       </c>
       <c r="AF53">
         <v>0</v>
@@ -5222,22 +6155,25 @@
       <c r="AG53">
         <v>1.238081812858582</v>
       </c>
-      <c r="AH53" t="s">
-        <v>141</v>
+      <c r="AH53">
+        <v>0</v>
+      </c>
+      <c r="AI53">
+        <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:34">
+    <row r="54" spans="1:35">
       <c r="A54">
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C54">
         <v>688039</v>
       </c>
       <c r="D54" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E54">
         <v>-0.33</v>
@@ -5255,7 +6191,7 @@
         <v>55206.2</v>
       </c>
       <c r="J54" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="K54">
         <v>1</v>
@@ -5296,8 +6232,23 @@
       <c r="W54">
         <v>-0.32</v>
       </c>
+      <c r="X54">
+        <v>2.25</v>
+      </c>
+      <c r="Y54">
+        <v>47.81</v>
+      </c>
+      <c r="Z54">
+        <v>4.66</v>
+      </c>
       <c r="AC54" t="s">
-        <v>139</v>
+        <v>140</v>
+      </c>
+      <c r="AD54">
+        <v>0</v>
+      </c>
+      <c r="AE54">
+        <v>0</v>
       </c>
       <c r="AF54">
         <v>0</v>
@@ -5305,22 +6256,25 @@
       <c r="AG54">
         <v>2.421725034713745</v>
       </c>
-      <c r="AH54" t="s">
-        <v>141</v>
+      <c r="AH54">
+        <v>0</v>
+      </c>
+      <c r="AI54">
+        <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:34">
+    <row r="55" spans="1:35">
       <c r="A55">
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C55">
         <v>688062</v>
       </c>
       <c r="D55" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E55">
         <v>6.23</v>
@@ -5338,7 +6292,7 @@
         <v>91451.97</v>
       </c>
       <c r="J55" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="K55">
         <v>4</v>
@@ -5379,8 +6333,23 @@
       <c r="W55">
         <v>0.64</v>
       </c>
+      <c r="X55">
+        <v>-2.26</v>
+      </c>
+      <c r="Y55">
+        <v>36.34</v>
+      </c>
+      <c r="Z55">
+        <v>-0.87</v>
+      </c>
       <c r="AC55" t="s">
-        <v>139</v>
+        <v>140</v>
+      </c>
+      <c r="AD55">
+        <v>0</v>
+      </c>
+      <c r="AE55">
+        <v>0</v>
       </c>
       <c r="AF55">
         <v>0</v>
@@ -5388,22 +6357,25 @@
       <c r="AG55">
         <v>0.06559640169143677</v>
       </c>
-      <c r="AH55" t="s">
-        <v>141</v>
+      <c r="AH55">
+        <v>0</v>
+      </c>
+      <c r="AI55">
+        <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:34">
+    <row r="56" spans="1:35">
       <c r="A56">
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C56">
         <v>688110</v>
       </c>
       <c r="D56" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E56">
         <v>-11.37</v>
@@ -5421,7 +6393,7 @@
         <v>615618</v>
       </c>
       <c r="J56" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="K56">
         <v>4</v>
@@ -5462,8 +6434,23 @@
       <c r="W56">
         <v>-3.01</v>
       </c>
+      <c r="X56">
+        <v>20</v>
+      </c>
+      <c r="Y56">
+        <v>68.88</v>
+      </c>
+      <c r="Z56">
+        <v>20</v>
+      </c>
       <c r="AC56" t="s">
-        <v>139</v>
+        <v>140</v>
+      </c>
+      <c r="AD56">
+        <v>0</v>
+      </c>
+      <c r="AE56">
+        <v>1</v>
       </c>
       <c r="AF56">
         <v>0</v>
@@ -5471,22 +6458,25 @@
       <c r="AG56">
         <v>3.593303442001343</v>
       </c>
-      <c r="AH56" t="s">
-        <v>141</v>
+      <c r="AH56">
+        <v>0</v>
+      </c>
+      <c r="AI56">
+        <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:34">
+    <row r="57" spans="1:35">
       <c r="A57">
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C57">
         <v>688189</v>
       </c>
       <c r="D57" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E57">
         <v>2.51</v>
@@ -5504,7 +6494,7 @@
         <v>113355.87</v>
       </c>
       <c r="J57" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K57">
         <v>3</v>
@@ -5545,8 +6535,23 @@
       <c r="W57">
         <v>-2.35</v>
       </c>
+      <c r="X57">
+        <v>-1.82</v>
+      </c>
+      <c r="Y57">
+        <v>17.28</v>
+      </c>
+      <c r="Z57">
+        <v>-1.65</v>
+      </c>
       <c r="AC57" t="s">
-        <v>139</v>
+        <v>140</v>
+      </c>
+      <c r="AD57">
+        <v>0</v>
+      </c>
+      <c r="AE57">
+        <v>0</v>
       </c>
       <c r="AF57">
         <v>0</v>
@@ -5554,22 +6559,25 @@
       <c r="AG57">
         <v>2.783099889755249</v>
       </c>
-      <c r="AH57" t="s">
-        <v>141</v>
+      <c r="AH57">
+        <v>0</v>
+      </c>
+      <c r="AI57">
+        <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:34">
+    <row r="58" spans="1:35">
       <c r="A58">
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C58">
         <v>688258</v>
       </c>
       <c r="D58" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E58">
         <v>5.52</v>
@@ -5587,7 +6595,7 @@
         <v>67682.46000000001</v>
       </c>
       <c r="J58" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="K58">
         <v>3</v>
@@ -5628,8 +6636,23 @@
       <c r="W58">
         <v>0.33</v>
       </c>
+      <c r="X58">
+        <v>12.08</v>
+      </c>
+      <c r="Y58">
+        <v>77.09999999999999</v>
+      </c>
+      <c r="Z58">
+        <v>14.56</v>
+      </c>
       <c r="AC58" t="s">
-        <v>140</v>
+        <v>141</v>
+      </c>
+      <c r="AD58">
+        <v>1</v>
+      </c>
+      <c r="AE58">
+        <v>1</v>
       </c>
       <c r="AF58">
         <v>1</v>
@@ -5637,22 +6660,25 @@
       <c r="AG58">
         <v>3.380192518234253</v>
       </c>
-      <c r="AH58" t="s">
-        <v>142</v>
+      <c r="AH58">
+        <v>1</v>
+      </c>
+      <c r="AI58">
+        <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:34">
+    <row r="59" spans="1:35">
       <c r="A59">
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C59">
         <v>688448</v>
       </c>
       <c r="D59" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E59">
         <v>8.109999999999999</v>
@@ -5670,7 +6696,7 @@
         <v>55839.28</v>
       </c>
       <c r="J59" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="K59">
         <v>1</v>
@@ -5711,8 +6737,23 @@
       <c r="W59">
         <v>1.14</v>
       </c>
+      <c r="X59">
+        <v>4.5</v>
+      </c>
+      <c r="Y59">
+        <v>41.8</v>
+      </c>
+      <c r="Z59">
+        <v>4.5</v>
+      </c>
       <c r="AC59" t="s">
-        <v>140</v>
+        <v>141</v>
+      </c>
+      <c r="AD59">
+        <v>0</v>
+      </c>
+      <c r="AE59">
+        <v>0</v>
       </c>
       <c r="AF59">
         <v>0</v>
@@ -5720,22 +6761,25 @@
       <c r="AG59">
         <v>0.4208069443702698</v>
       </c>
-      <c r="AH59" t="s">
-        <v>141</v>
+      <c r="AH59">
+        <v>0</v>
+      </c>
+      <c r="AI59">
+        <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:34">
+    <row r="60" spans="1:35">
       <c r="A60">
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C60">
         <v>688500</v>
       </c>
       <c r="D60" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E60">
         <v>8.32</v>
@@ -5753,7 +6797,7 @@
         <v>39765.9</v>
       </c>
       <c r="J60" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="K60">
         <v>1</v>
@@ -5794,8 +6838,23 @@
       <c r="W60">
         <v>0.28</v>
       </c>
+      <c r="X60">
+        <v>2.14</v>
+      </c>
+      <c r="Y60">
+        <v>81.5</v>
+      </c>
+      <c r="Z60">
+        <v>5.71</v>
+      </c>
       <c r="AC60" t="s">
-        <v>140</v>
+        <v>141</v>
+      </c>
+      <c r="AD60">
+        <v>0</v>
+      </c>
+      <c r="AE60">
+        <v>0</v>
       </c>
       <c r="AF60">
         <v>0</v>
@@ -5803,22 +6862,25 @@
       <c r="AG60">
         <v>0.8542013168334961</v>
       </c>
-      <c r="AH60" t="s">
-        <v>141</v>
+      <c r="AH60">
+        <v>0</v>
+      </c>
+      <c r="AI60">
+        <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:34">
+    <row r="61" spans="1:35">
       <c r="A61">
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C61">
         <v>688556</v>
       </c>
       <c r="D61" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E61">
         <v>1.91</v>
@@ -5836,7 +6898,7 @@
         <v>64641.18</v>
       </c>
       <c r="J61" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="K61">
         <v>5</v>
@@ -5877,8 +6939,23 @@
       <c r="W61">
         <v>1.29</v>
       </c>
+      <c r="X61">
+        <v>0.38</v>
+      </c>
+      <c r="Y61">
+        <v>10.77</v>
+      </c>
+      <c r="Z61">
+        <v>1.03</v>
+      </c>
       <c r="AC61" t="s">
-        <v>139</v>
+        <v>140</v>
+      </c>
+      <c r="AD61">
+        <v>0</v>
+      </c>
+      <c r="AE61">
+        <v>0</v>
       </c>
       <c r="AF61">
         <v>0</v>
@@ -5886,22 +6963,25 @@
       <c r="AG61">
         <v>6.046247959136963</v>
       </c>
-      <c r="AH61" t="s">
-        <v>141</v>
+      <c r="AH61">
+        <v>0</v>
+      </c>
+      <c r="AI61">
+        <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:34">
+    <row r="62" spans="1:35">
       <c r="A62">
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C62">
         <v>688603</v>
       </c>
       <c r="D62" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E62">
         <v>2.65</v>
@@ -5919,7 +6999,7 @@
         <v>52342.75</v>
       </c>
       <c r="J62" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="K62">
         <v>3</v>
@@ -5960,8 +7040,23 @@
       <c r="W62">
         <v>-0.28</v>
       </c>
+      <c r="X62">
+        <v>-1.94</v>
+      </c>
+      <c r="Y62">
+        <v>66.84999999999999</v>
+      </c>
+      <c r="Z62">
+        <v>-0.21</v>
+      </c>
       <c r="AC62" t="s">
-        <v>139</v>
+        <v>140</v>
+      </c>
+      <c r="AD62">
+        <v>0</v>
+      </c>
+      <c r="AE62">
+        <v>0</v>
       </c>
       <c r="AF62">
         <v>0</v>
@@ -5969,22 +7064,25 @@
       <c r="AG62">
         <v>3.127537965774536</v>
       </c>
-      <c r="AH62" t="s">
-        <v>141</v>
+      <c r="AH62">
+        <v>0</v>
+      </c>
+      <c r="AI62">
+        <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:34">
+    <row r="63" spans="1:35">
       <c r="A63">
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C63">
         <v>688630</v>
       </c>
       <c r="D63" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E63">
         <v>-4.3</v>
@@ -6002,7 +7100,7 @@
         <v>127712.38</v>
       </c>
       <c r="J63" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="K63">
         <v>7</v>
@@ -6043,8 +7141,23 @@
       <c r="W63">
         <v>-0.7</v>
       </c>
+      <c r="X63">
+        <v>-2.54</v>
+      </c>
+      <c r="Y63">
+        <v>117.51</v>
+      </c>
+      <c r="Z63">
+        <v>-0.12</v>
+      </c>
       <c r="AC63" t="s">
-        <v>139</v>
+        <v>140</v>
+      </c>
+      <c r="AD63">
+        <v>0</v>
+      </c>
+      <c r="AE63">
+        <v>0</v>
       </c>
       <c r="AF63">
         <v>0</v>
@@ -6052,22 +7165,25 @@
       <c r="AG63">
         <v>3.479805946350098</v>
       </c>
-      <c r="AH63" t="s">
-        <v>141</v>
+      <c r="AH63">
+        <v>0</v>
+      </c>
+      <c r="AI63">
+        <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:34">
+    <row r="64" spans="1:35">
       <c r="A64">
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C64">
         <v>688660</v>
       </c>
       <c r="D64" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E64">
         <v>4.98</v>
@@ -6085,7 +7201,7 @@
         <v>113051.8</v>
       </c>
       <c r="J64" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="K64">
         <v>8</v>
@@ -6126,8 +7242,23 @@
       <c r="W64">
         <v>0.02</v>
       </c>
+      <c r="X64">
+        <v>-3.73</v>
+      </c>
+      <c r="Y64">
+        <v>15.12</v>
+      </c>
+      <c r="Z64">
+        <v>2.44</v>
+      </c>
       <c r="AC64" t="s">
-        <v>139</v>
+        <v>140</v>
+      </c>
+      <c r="AD64">
+        <v>0</v>
+      </c>
+      <c r="AE64">
+        <v>0</v>
       </c>
       <c r="AF64">
         <v>0</v>
@@ -6135,22 +7266,25 @@
       <c r="AG64">
         <v>5.266753673553467</v>
       </c>
-      <c r="AH64" t="s">
-        <v>141</v>
+      <c r="AH64">
+        <v>0</v>
+      </c>
+      <c r="AI64">
+        <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:34">
+    <row r="65" spans="1:35">
       <c r="A65">
         <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C65">
         <v>688668</v>
       </c>
       <c r="D65" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E65">
         <v>-6.13</v>
@@ -6168,7 +7302,7 @@
         <v>110769.77</v>
       </c>
       <c r="J65" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="K65">
         <v>12</v>
@@ -6209,8 +7343,23 @@
       <c r="W65">
         <v>-0.15</v>
       </c>
+      <c r="X65">
+        <v>0.36</v>
+      </c>
+      <c r="Y65">
+        <v>92.26000000000001</v>
+      </c>
+      <c r="Z65">
+        <v>2.49</v>
+      </c>
       <c r="AC65" t="s">
-        <v>139</v>
+        <v>140</v>
+      </c>
+      <c r="AD65">
+        <v>0</v>
+      </c>
+      <c r="AE65">
+        <v>0</v>
       </c>
       <c r="AF65">
         <v>1</v>
@@ -6218,8 +7367,11 @@
       <c r="AG65">
         <v>9.734100341796875</v>
       </c>
-      <c r="AH65" t="s">
-        <v>141</v>
+      <c r="AH65">
+        <v>0</v>
+      </c>
+      <c r="AI65">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
